--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dan Ove\TFM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAB9654-D265-464C-8F74-E91585661768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="systemkodeliste" sheetId="2" r:id="rId1"/>
+    <sheet name="komponentkodeliste" sheetId="3" r:id="rId2"/>
+    <sheet name="system" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,10 +26,426 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="134">
+  <si>
+    <t>veiledning</t>
+  </si>
+  <si>
+    <t>LNL3300</t>
+  </si>
+  <si>
+    <t>LNL2220</t>
+  </si>
+  <si>
+    <t>1300,1320,500</t>
+  </si>
+  <si>
+    <t>sentral</t>
+  </si>
+  <si>
+    <t>SPC4320</t>
+  </si>
+  <si>
+    <t>max_us</t>
+  </si>
+  <si>
+    <t>pnl</t>
+  </si>
+  <si>
+    <t>max_pnl</t>
+  </si>
+  <si>
+    <t>SPC5330</t>
+  </si>
+  <si>
+    <t>SPC5350</t>
+  </si>
+  <si>
+    <t>SPC6330</t>
+  </si>
+  <si>
+    <t>SPC6350</t>
+  </si>
+  <si>
+    <t>max_dev</t>
+  </si>
+  <si>
+    <t>max-door</t>
+  </si>
+  <si>
+    <t>max_zone</t>
+  </si>
+  <si>
+    <t>LNL4400</t>
+  </si>
+  <si>
+    <t>us_door</t>
+  </si>
+  <si>
+    <t>us_zone</t>
+  </si>
+  <si>
+    <t>SPCK420,SPCK421,SPCK520,SPCK521,SPCK620,SPCK623</t>
+  </si>
+  <si>
+    <t>SPC332,SPC333,SPCP355</t>
+  </si>
+  <si>
+    <t>SPCP432,SPCP433</t>
+  </si>
+  <si>
+    <t>SPCP332,SPCP333,SPCP355,SPCE652,SPCE452</t>
+  </si>
+  <si>
+    <t>bygningsdelsnummer</t>
+  </si>
+  <si>
+    <t>bygningdelsnr_navn</t>
+  </si>
+  <si>
+    <t>tfm_kommentar</t>
+  </si>
+  <si>
+    <t>Internfjernsyn</t>
+  </si>
+  <si>
+    <t>Overvåkningsanlegg, undervisning m.v</t>
+  </si>
+  <si>
+    <t>Systemkode i TFM</t>
+  </si>
+  <si>
+    <t>Brannalarm</t>
+  </si>
+  <si>
+    <t>Komplett, inkludert kursopplegg der dette ikke inngår i 521.</t>
+  </si>
+  <si>
+    <t>Adgangskontroll, innbrudds- og overfallsalarm</t>
+  </si>
+  <si>
+    <t>Komplett, inkludert kursopplegg der dette ikke inngår i 521. Ringeanlegg for inngangsdører ansees som enkle adgangskontrollanlegg</t>
+  </si>
+  <si>
+    <t>Systemer for porttelefoner</t>
+  </si>
+  <si>
+    <t>Dørsystem</t>
+  </si>
+  <si>
+    <t>Systemkode for Dørsystem (lås og beslag for innvendige og utvendige dører) i TFM</t>
+  </si>
+  <si>
+    <t>lås og beslag</t>
+  </si>
+  <si>
+    <t>komponentfunksjon</t>
+  </si>
+  <si>
+    <t>komponentfunksjon_navn</t>
+  </si>
+  <si>
+    <t>faganvendelse</t>
+  </si>
+  <si>
+    <t>eksempel</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dør - utvendig </t>
+  </si>
+  <si>
+    <t>Utvendige Dører; Inngangsdører, Utgangsdører, Dører mot det fri.Ståldører, Tredører, Glassdører, Skyvedører</t>
+  </si>
+  <si>
+    <t>Ytterdører</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Rulleporter foldeporter skyveporter</t>
+  </si>
+  <si>
+    <t>Porter inne og ute</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>Vindu</t>
+  </si>
+  <si>
+    <t>Innervinduer, Yttervinduer, Takvinduer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inne og ute, Grupperes (ikke glassfelt) </t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>Krok / Knagg / Håndtak</t>
+  </si>
+  <si>
+    <t>Løftekroker, Dørvridere, Panikkbeslag (for døråpning)</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Lås / Beslag</t>
+  </si>
+  <si>
+    <t>Låskasser, Låssylinder, Låskontakt, Systemsylinder</t>
+  </si>
+  <si>
+    <t>Grupperes etterløpenummer</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>Nøkkelkort, Systemnøkkel</t>
+  </si>
+  <si>
+    <t>Nøkler</t>
+  </si>
+  <si>
+    <t>Typeunik</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solceller, solfangere, kombinasjonsaggregater </t>
+  </si>
+  <si>
+    <t>C Solceller/solfangere</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>Til produksjon av elektrisitet ved hjelp av fotoelektrisk effekt. For termisk varmeopptak fra sollys. Kogenerering av lys og varme. CHPaggregat (combined heat and power.)</t>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t>For Strømproduksjon, Reservekraft, Nødstrøm</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Mast / Antenne</t>
+  </si>
+  <si>
+    <t>Stolpe, Stang</t>
+  </si>
+  <si>
+    <t>KX</t>
+  </si>
+  <si>
+    <t>Lavspenningskabel &lt; 50V 0V</t>
+  </si>
+  <si>
+    <t>0V til 49V - SD-system, IT-kabler(metall), Signalkabel</t>
+  </si>
+  <si>
+    <t>Svakstrømskabel, Ledning, Patchesnor, Koaksialkabel</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Optisk kabel</t>
+  </si>
+  <si>
+    <t>IT-kabel, Fiberkabler</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB Batteri / UPS </t>
+  </si>
+  <si>
+    <t>Strømbatterier, Strømakkumulator, No-Break,
+Avbruddsfri strømforsyning, Batteripakke</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>PC, Dataterminal</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Sentralenhet, Mikser i Lydsystem</t>
+  </si>
+  <si>
+    <t>Kontrollenhet (se også OU), Hovedsentral, Dataserver, Telefonsentral, Alarmsentral, Brannsentral, Master-Node i LON, EIB eller BUSS-system, Miksebord (Mixing Console)</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OU Undersentral Kontrollenhet (se også OS), Subsentraler, PLS, </t>
+  </si>
+  <si>
+    <t>Kontrollenhet (se også OS), Subsentraler, PLS, DDC, CPU, Node, Scenariomodul, Logikkmodul, Bustilkoblingsmodul, Enhet for prosessering i lydsystemer: Lydmatrise (Digital Matrise), Romklangenhet, Forsinkerenhet (Digital Delay)</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>AV-opptaker</t>
+  </si>
+  <si>
+    <t>Kamera, Mikrofon, Fotografiapparat</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>Bevegelse</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>Seismometer</t>
+  </si>
+  <si>
+    <t>Seismisk detektor (Rystelse, lyd, varme)</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>Differansetrykkgiver</t>
+  </si>
+  <si>
+    <t>Differansetrykkføler, Differansetrykktransmitter, Differensmåling med elektr.signal</t>
+  </si>
+  <si>
+    <t>Kan også brukes ved diff.måling av andre variabler. For manuelt instrument, se RQ</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Elektriske variabler</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>RK</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>RQ</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>RY</t>
+  </si>
+  <si>
+    <t>RZ</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>XH</t>
+  </si>
+  <si>
+    <t>XK</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>XZ</t>
+  </si>
+  <si>
+    <t>Bevegelsesdetektor, Tilstedeværelsesdetektor, IR-Detektor, Infrarød, Presensføler, Glassbruddsdetektor (lyd og rystelse)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +473,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +760,752 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4D9DE3-4699-4ECB-B08D-49A728C1F5FC}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="120.85546875" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>543</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>534</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>542</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>547</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>553</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260B4E84-5EDE-4524-B236-09DCDBF70405}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+    <col min="3" max="3" width="203.7109375" customWidth="1"/>
+    <col min="4" max="4" width="151.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>128</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>48</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>128</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>48</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>512</v>
+      </c>
+      <c r="F5">
+        <v>64</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>128</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>512</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>128</v>
+      </c>
+      <c r="I6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>64</v>
+      </c>
+      <c r="I7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>64</v>
+      </c>
+      <c r="I9">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dan Ove\TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAB9654-D265-464C-8F74-E91585661768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D35FDB-DB1A-4D9E-A31B-03E1ECB9C5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="206">
   <si>
     <t>veiledning</t>
   </si>
@@ -430,6 +430,222 @@
   </si>
   <si>
     <t>Bevegelsesdetektor, Tilstedeværelsesdetektor, IR-Detektor, Infrarød, Presensføler, Glassbruddsdetektor (lyd og rystelse)</t>
+  </si>
+  <si>
+    <t>Strømningsmåler</t>
+  </si>
+  <si>
+    <t>Flow Rate, Mengdemåler, Luftmengdemåler, Vannmengdemålere, Målekors, Måleblende, Strømningsgiver, Volummeter</t>
+  </si>
+  <si>
+    <t>Effektmåler, Strømmåler, Spenningsmåler, Intensitet, Måletrafo</t>
+  </si>
+  <si>
+    <t>RG Posisjon / Lengde</t>
+  </si>
+  <si>
+    <t>Magnetkontakt, datamus, pekeredskap</t>
+  </si>
+  <si>
+    <t>Fuktighetsgiver</t>
+  </si>
+  <si>
+    <t>Humidity, Fuktføler, Luftfuktighetsføler, Fuktighetsdetektor, Hygrometer (RHxx1), Vannføler, Regnføler (RH90), Snøføler (RH99)</t>
+  </si>
+  <si>
+    <t>Termometer</t>
+  </si>
+  <si>
+    <t>Fotocelle</t>
+  </si>
+  <si>
+    <t>Fotoselle, Lysføler, Solføler</t>
+  </si>
+  <si>
+    <t>Kortleser</t>
+  </si>
+  <si>
+    <t>Kortlesere, registrerende, avlesende, tastatur</t>
+  </si>
+  <si>
+    <t>Multifunksjonell, Kombinert føler</t>
+  </si>
+  <si>
+    <t>Sammensatt enhet, multiregistrerende.</t>
+  </si>
+  <si>
+    <t>Nivågiver</t>
+  </si>
+  <si>
+    <t>Nivåmåler, Høydemåler</t>
+  </si>
+  <si>
+    <t>Trykkgiver</t>
+  </si>
+  <si>
+    <t>Trykkføler, Trykktransmitter, Vakumføler</t>
+  </si>
+  <si>
+    <t>Manometer, Trykkmåler</t>
+  </si>
+  <si>
+    <t>Giver generelt</t>
+  </si>
+  <si>
+    <t>Følere/ sensorer/ givere av annen type enn øvrige</t>
+  </si>
+  <si>
+    <t>Hastighetsmåler</t>
+  </si>
+  <si>
+    <t>Hastighetsmåler for mengdeberegning: RF</t>
+  </si>
+  <si>
+    <t>Temperaturgiver</t>
+  </si>
+  <si>
+    <t>Ur</t>
+  </si>
+  <si>
+    <t>Ur, Tidsur, Årsur, Ukeur, Klokke</t>
+  </si>
+  <si>
+    <t>Urbryter og Timer: XO_</t>
+  </si>
+  <si>
+    <t>XO</t>
+  </si>
+  <si>
+    <t>Veieceller</t>
+  </si>
+  <si>
+    <t>For komplett vekt, se GW</t>
+  </si>
+  <si>
+    <t>Virkningsgradsmåler</t>
+  </si>
+  <si>
+    <t>Komplett enhet</t>
+  </si>
+  <si>
+    <t>Målepunkt</t>
+  </si>
+  <si>
+    <t>Gassdetektor/Røykdetektor</t>
+  </si>
+  <si>
+    <t>CO2-detektor, CO2-føler, Luftkvalitetsmåler, Brannmelder, Linjedetektor</t>
+  </si>
+  <si>
+    <t>Registrering av Branngasser</t>
+  </si>
+  <si>
+    <t>Branndeteksjon</t>
+  </si>
+  <si>
+    <t>Kontrollpanel / Tablå</t>
+  </si>
+  <si>
+    <t>Betjeningstablå, Brannmannspanel, Betjeningsterminal, Driftsterminal, Manøverbord Komplett panel med brytere, lamper, display el.lign. Ikke datamaskin</t>
+  </si>
+  <si>
+    <t>Monitor / Display</t>
+  </si>
+  <si>
+    <t>Koblingsboks</t>
+  </si>
+  <si>
+    <t>Se også: FS_ og XX_</t>
+  </si>
+  <si>
+    <t>Komponenter for signalering</t>
+  </si>
+  <si>
+    <t>Releer / Kontaktorer</t>
+  </si>
+  <si>
+    <t>Reléer, Hjelperele, Målerele</t>
+  </si>
+  <si>
+    <t>Urbryter / Timer</t>
+  </si>
+  <si>
+    <t>Ikke NEC. Se:RU_ for UR, Klokke</t>
+  </si>
+  <si>
+    <t>Bryter / Vender / Knapp / Vippe</t>
+  </si>
+  <si>
+    <t>Switch, Utløserbrytere, Endebryter, Trykknapper, Manuelle brannmeldere</t>
+  </si>
+  <si>
+    <t>Koblingsapparat for kontroll- og teleteknikk</t>
+  </si>
+  <si>
+    <t>Rekkeklemmer / Samlesignal</t>
+  </si>
+  <si>
+    <t>BUS-system: utgang</t>
+  </si>
+  <si>
+    <t>Terminering og tilpasning</t>
+  </si>
+  <si>
+    <t>Avlesning av temperatur, Visende instrumenter – manuell avlesning.</t>
+  </si>
+  <si>
+    <t>Det skal benyttes RI4_ for i tilluft/tur og RI5_ for i fraluft/retur o.s.v. se veiledning</t>
+  </si>
+  <si>
+    <t>Værstasjon, Multivippe med bevegelsesmelder (i bus-system)</t>
+  </si>
+  <si>
+    <t>Avlesning av trykk og differansetrykkmåler, U-rør, Visende instrumenter – manuell avlesning.</t>
+  </si>
+  <si>
+    <t>Eksempel: Konduktivitetssensor (vannets ledningsevne), pH-måler</t>
+  </si>
+  <si>
+    <t>Strømningsføler, Speedometer, Frekvensmålere, Rotasjon, Vindmåler, Vindhastighetsmåler, Vindføler</t>
+  </si>
+  <si>
+    <t>Temperaturføler, Temperaturtransmitter. For frostvakt se QT</t>
+  </si>
+  <si>
+    <t>Det skal benyttes RT4_ for i tilluft/tur og RT5_ for i fraluft/retur</t>
+  </si>
+  <si>
+    <t>Veieceller, Fastmontert eller løs vektsensor. Veieaparater, Måleapparater, vekter</t>
+  </si>
+  <si>
+    <t>Følere knyttet direkte til brannalarmsystem. Optisk røykdetektor, Linjedetektor, Ionisk røykdetektor, Varmedetektor, Flammedetektor, Aspirasjonsdetektor, Multisensor eller multikriterie</t>
+  </si>
+  <si>
+    <t>Manuell brannmelder se XS_. Brannsentral, se OS_, OU_</t>
+  </si>
+  <si>
+    <t>Betjeningspanel, Instrumentpanel, Styringspanel, Betjeningstablå, Brannmannspanel, Betjeningsterminal, Driftsterminal, Manøverbord</t>
+  </si>
+  <si>
+    <t>TV-skjerm, Dataskjermer, Display, Digitalt viserinstument</t>
+  </si>
+  <si>
+    <t>(Små skap eller bokser som inneholder tilkoblingsklemmer.) Krysskoblingsskap, patchepanel</t>
+  </si>
+  <si>
+    <t>Signallampe, Varsellampe, Lysdiode, Ringeklokke, Alarmklokke, Sirene, Stillingsviser, Summer, Horn</t>
+  </si>
+  <si>
+    <t>Koblingspunkt, Fellesfeil, Felles driftsignal, Potensialfrie signaler, Synkroniseringspuls</t>
+  </si>
+  <si>
+    <t>Inngangsmodul, Utgangsmodul, Inngangskort, Utgangskort, I/O-board, Gateway, Linjemodul, Sløyfekort, Adresseenhet, Interface, Grensesnitt</t>
+  </si>
+  <si>
+    <t>BUS-system: brett med flere utganger Normalt teletekniske komponenter</t>
+  </si>
+  <si>
+    <t>Sensor for mengdemåling - volum og hastighet Massestrøm, Volumstrøm</t>
   </si>
 </sst>
 </file>
@@ -863,18 +1079,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260B4E84-5EDE-4524-B236-09DCDBF70405}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
-    <col min="3" max="3" width="203.7109375" customWidth="1"/>
-    <col min="4" max="4" width="151.42578125" customWidth="1"/>
+    <col min="3" max="3" width="171.7109375" customWidth="1"/>
+    <col min="4" max="4" width="105.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,140 +1344,358 @@
       <c r="B21" t="s">
         <v>105</v>
       </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>107</v>
       </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>108</v>
       </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>109</v>
       </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>111</v>
       </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
+      <c r="B28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>113</v>
       </c>
+      <c r="B29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>115</v>
       </c>
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>132</v>
+      </c>
+      <c r="B49" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dan Ove\TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D35FDB-DB1A-4D9E-A31B-03E1ECB9C5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023ECC6B-A02A-453E-BF80-FBA8F7830113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="1830" windowWidth="18360" windowHeight="10890" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="systemkodeliste" sheetId="2" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>max_dev</t>
   </si>
   <si>
-    <t>max-door</t>
-  </si>
-  <si>
     <t>max_zone</t>
   </si>
   <si>
@@ -646,6 +643,9 @@
   </si>
   <si>
     <t>Sensor for mengdemåling - volum og hastighet Massestrøm, Volumstrøm</t>
+  </si>
+  <si>
+    <t>max_door</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -697,6 +697,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,7 +981,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,21 +989,21 @@
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="120.85546875" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1010,13 +1011,13 @@
         <v>543</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1024,10 +1025,10 @@
         <v>534</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,27 +1036,27 @@
         <v>542</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>547</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,13 +1064,13 @@
         <v>553</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1081,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260B4E84-5EDE-4524-B236-09DCDBF70405}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,607 +1096,607 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
         <v>74</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>76</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
         <v>81</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
         <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
         <v>86</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
         <v>89</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
         <v>92</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
         <v>95</v>
       </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
         <v>97</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
         <v>100</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>101</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
         <v>104</v>
       </c>
-      <c r="B21" t="s">
-        <v>105</v>
-      </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" t="s">
         <v>134</v>
       </c>
-      <c r="C22" t="s">
-        <v>135</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
         <v>137</v>
-      </c>
-      <c r="C23" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
         <v>139</v>
-      </c>
-      <c r="C24" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
         <v>142</v>
-      </c>
-      <c r="C26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" t="s">
         <v>144</v>
-      </c>
-      <c r="C27" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" t="s">
         <v>146</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
         <v>148</v>
-      </c>
-      <c r="C29" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" t="s">
         <v>150</v>
-      </c>
-      <c r="C30" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s">
         <v>153</v>
       </c>
-      <c r="C32" t="s">
-        <v>154</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" t="s">
         <v>155</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" t="s">
         <v>159</v>
-      </c>
-      <c r="D35" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" t="s">
         <v>167</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>168</v>
-      </c>
-      <c r="D39" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" t="s">
         <v>171</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" t="s">
         <v>174</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" t="s">
         <v>179</v>
-      </c>
-      <c r="D46" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" t="s">
         <v>181</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>182</v>
-      </c>
-      <c r="D47" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" t="s">
         <v>184</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D48" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1706,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,16 +1728,16 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -1748,7 +1749,7 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1756,13 +1757,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>32</v>
@@ -1785,13 +1786,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>128</v>
@@ -1814,13 +1815,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>128</v>
@@ -1843,13 +1844,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>512</v>
@@ -1872,13 +1873,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>512</v>
@@ -1927,7 +1928,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -1938,6 +1939,12 @@
       <c r="I9">
         <v>128</v>
       </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
